--- a/test-main/src/main/resources/rule3/验证数据.xlsx
+++ b/test-main/src/main/resources/rule3/验证数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -36,10 +36,6 @@
     <t>createTime</t>
   </si>
   <si>
-    <t>DRAW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2016-08-1 08:15:15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -56,14 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>permit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enbale</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>388888888888C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -77,6 +65,24 @@
   </si>
   <si>
     <t>verifiedData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notTriggered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WITHDRAW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataDisposeSehedule</t>
+  </si>
+  <si>
+    <t>successed</t>
+  </si>
+  <si>
+    <t>rule3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -463,10 +469,10 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,74 +494,86 @@
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>888</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="3">
         <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="3">
         <v>888</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/test-main/src/main/resources/rule3/验证数据.xlsx
+++ b/test-main/src/main/resources/rule3/验证数据.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -82,15 +82,15 @@
     <t>successed</t>
   </si>
   <si>
-    <t>rule3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>POC0003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +119,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +161,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +469,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -520,7 +530,7 @@
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
     </row>

--- a/test-main/src/main/resources/rule3/验证数据.xlsx
+++ b/test-main/src/main/resources/rule3/验证数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -77,13 +77,23 @@
   </si>
   <si>
     <t>dataDisposeSehedule</t>
-  </si>
-  <si>
-    <t>successed</t>
   </si>
   <si>
     <t>POC0003</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bizCode</t>
+  </si>
+  <si>
+    <t>PAY.TX</t>
+  </si>
+  <si>
+    <t>SUCCESSED</t>
+  </si>
+  <si>
+    <t>2016-08-16 08:15:16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,7 +492,7 @@
     <col min="7" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +517,11 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -528,13 +541,16 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -554,13 +570,16 @@
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -577,13 +596,16 @@
         <v>888</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/test-main/src/main/resources/rule3/验证数据.xlsx
+++ b/test-main/src/main/resources/rule3/验证数据.xlsx
@@ -36,10 +36,6 @@
     <t>createTime</t>
   </si>
   <si>
-    <t>2016-08-1 08:15:15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>M33333333</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -65,10 +61,6 @@
   </si>
   <si>
     <t>verifiedData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notTriggered</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -93,6 +85,14 @@
   </si>
   <si>
     <t>2016-08-16 08:15:16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notTriggered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-08-01 08:15:15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +479,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -512,100 +512,100 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3">
         <v>888</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3">
         <v>888</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
